--- a/Team-Data/2013-14/3-1-2013-14.xlsx
+++ b/Team-Data/2013-14/3-1-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>-0.2</v>
       </c>
       <c r="AD2" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AE2" t="n">
         <v>18</v>
@@ -756,7 +823,7 @@
         <v>18</v>
       </c>
       <c r="AH2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI2" t="n">
         <v>16</v>
@@ -768,13 +835,13 @@
         <v>7</v>
       </c>
       <c r="AL2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM2" t="n">
         <v>3</v>
       </c>
       <c r="AN2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO2" t="n">
         <v>20</v>
@@ -798,7 +865,7 @@
         <v>1</v>
       </c>
       <c r="AV2" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AW2" t="n">
         <v>7</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-1-2013-14</t>
+          <t>2014-03-01</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E3" t="n">
         <v>20</v>
       </c>
       <c r="F3" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G3" t="n">
-        <v>0.333</v>
+        <v>0.339</v>
       </c>
       <c r="H3" t="n">
         <v>48.1</v>
@@ -866,7 +933,7 @@
         <v>36.4</v>
       </c>
       <c r="J3" t="n">
-        <v>83.8</v>
+        <v>83.7</v>
       </c>
       <c r="K3" t="n">
         <v>0.435</v>
@@ -875,7 +942,7 @@
         <v>6.4</v>
       </c>
       <c r="M3" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="N3" t="n">
         <v>0.327</v>
@@ -887,7 +954,7 @@
         <v>21.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.769</v>
+        <v>0.768</v>
       </c>
       <c r="R3" t="n">
         <v>11.7</v>
@@ -899,13 +966,13 @@
         <v>43</v>
       </c>
       <c r="U3" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="V3" t="n">
         <v>15.4</v>
       </c>
       <c r="W3" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X3" t="n">
         <v>4.5</v>
@@ -920,25 +987,25 @@
         <v>19.2</v>
       </c>
       <c r="AB3" t="n">
-        <v>95.5</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="AC3" t="n">
         <v>-3.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AE3" t="n">
         <v>25</v>
       </c>
       <c r="AF3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH3" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI3" t="n">
         <v>23</v>
@@ -977,13 +1044,13 @@
         <v>15</v>
       </c>
       <c r="AU3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AV3" t="n">
+        <v>22</v>
+      </c>
+      <c r="AW3" t="n">
         <v>21</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>22</v>
       </c>
       <c r="AX3" t="n">
         <v>19</v>
@@ -998,7 +1065,7 @@
         <v>27</v>
       </c>
       <c r="BB3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BC3" t="n">
         <v>24</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-1-2013-14</t>
+          <t>2014-03-01</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" t="n">
         <v>29</v>
       </c>
       <c r="G4" t="n">
-        <v>0.491</v>
+        <v>0.482</v>
       </c>
       <c r="H4" t="n">
         <v>48.4</v>
@@ -1048,7 +1115,7 @@
         <v>35.3</v>
       </c>
       <c r="J4" t="n">
-        <v>78.5</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="K4" t="n">
         <v>0.45</v>
@@ -1057,28 +1124,28 @@
         <v>8</v>
       </c>
       <c r="M4" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="N4" t="n">
-        <v>0.361</v>
+        <v>0.36</v>
       </c>
       <c r="O4" t="n">
         <v>18.8</v>
       </c>
       <c r="P4" t="n">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.762</v>
+        <v>0.763</v>
       </c>
       <c r="R4" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="S4" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="T4" t="n">
-        <v>39</v>
+        <v>38.9</v>
       </c>
       <c r="U4" t="n">
         <v>20.7</v>
@@ -1087,28 +1154,28 @@
         <v>14.5</v>
       </c>
       <c r="W4" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="X4" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Y4" t="n">
         <v>4.2</v>
       </c>
       <c r="Z4" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="AA4" t="n">
         <v>20.9</v>
       </c>
       <c r="AB4" t="n">
-        <v>97.5</v>
+        <v>97.3</v>
       </c>
       <c r="AC4" t="n">
-        <v>-2.2</v>
+        <v>-2.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE4" t="n">
         <v>16</v>
@@ -1132,7 +1199,7 @@
         <v>15</v>
       </c>
       <c r="AL4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AM4" t="n">
         <v>12</v>
@@ -1144,13 +1211,13 @@
         <v>8</v>
       </c>
       <c r="AP4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AS4" t="n">
         <v>28</v>
@@ -1168,7 +1235,7 @@
         <v>11</v>
       </c>
       <c r="AX4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY4" t="n">
         <v>8</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-1-2013-14</t>
+          <t>2014-03-01</t>
         </is>
       </c>
     </row>
@@ -1290,10 +1357,10 @@
         <v>-1.7</v>
       </c>
       <c r="AD5" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AE5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF5" t="n">
         <v>17</v>
@@ -1302,7 +1369,7 @@
         <v>17</v>
       </c>
       <c r="AH5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI5" t="n">
         <v>27</v>
@@ -1320,7 +1387,7 @@
         <v>28</v>
       </c>
       <c r="AN5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO5" t="n">
         <v>12</v>
@@ -1329,16 +1396,16 @@
         <v>7</v>
       </c>
       <c r="AQ5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AS5" t="n">
         <v>7</v>
       </c>
       <c r="AT5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU5" t="n">
         <v>19</v>
@@ -1356,7 +1423,7 @@
         <v>21</v>
       </c>
       <c r="AZ5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-1-2013-14</t>
+          <t>2014-03-01</t>
         </is>
       </c>
     </row>
@@ -1472,10 +1539,10 @@
         <v>0.8</v>
       </c>
       <c r="AD6" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AE6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF6" t="n">
         <v>12</v>
@@ -1496,13 +1563,13 @@
         <v>28</v>
       </c>
       <c r="AL6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM6" t="n">
         <v>27</v>
       </c>
       <c r="AN6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO6" t="n">
         <v>13</v>
@@ -1532,7 +1599,7 @@
         <v>20</v>
       </c>
       <c r="AX6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY6" t="n">
         <v>29</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-1-2013-14</t>
+          <t>2014-03-01</t>
         </is>
       </c>
     </row>
@@ -1576,43 +1643,43 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E7" t="n">
         <v>24</v>
       </c>
       <c r="F7" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G7" t="n">
-        <v>0.393</v>
+        <v>0.4</v>
       </c>
       <c r="H7" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="I7" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="J7" t="n">
-        <v>85.3</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="K7" t="n">
-        <v>0.426</v>
+        <v>0.425</v>
       </c>
       <c r="L7" t="n">
         <v>7</v>
       </c>
       <c r="M7" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="N7" t="n">
         <v>0.351</v>
       </c>
       <c r="O7" t="n">
-        <v>17.2</v>
+        <v>17.4</v>
       </c>
       <c r="P7" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="Q7" t="n">
         <v>0.75</v>
@@ -1621,37 +1688,37 @@
         <v>12.8</v>
       </c>
       <c r="S7" t="n">
-        <v>31.8</v>
+        <v>31.9</v>
       </c>
       <c r="T7" t="n">
-        <v>44.6</v>
+        <v>44.8</v>
       </c>
       <c r="U7" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="V7" t="n">
         <v>14.4</v>
       </c>
       <c r="W7" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X7" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Y7" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Z7" t="n">
         <v>20</v>
       </c>
       <c r="AA7" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AB7" t="n">
         <v>97</v>
       </c>
       <c r="AC7" t="n">
-        <v>-4.2</v>
+        <v>-4</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
@@ -1669,7 +1736,7 @@
         <v>2</v>
       </c>
       <c r="AI7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ7" t="n">
         <v>5</v>
@@ -1696,7 +1763,7 @@
         <v>20</v>
       </c>
       <c r="AR7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS7" t="n">
         <v>15</v>
@@ -1723,7 +1790,7 @@
         <v>9</v>
       </c>
       <c r="BA7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BB7" t="n">
         <v>23</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-1-2013-14</t>
+          <t>2014-03-01</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>2.3</v>
       </c>
       <c r="AD8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE8" t="n">
         <v>8</v>
@@ -1848,7 +1915,7 @@
         <v>9</v>
       </c>
       <c r="AH8" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AI8" t="n">
         <v>3</v>
@@ -1890,7 +1957,7 @@
         <v>4</v>
       </c>
       <c r="AV8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW8" t="n">
         <v>3</v>
@@ -1905,10 +1972,10 @@
         <v>10</v>
       </c>
       <c r="BA8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC8" t="n">
         <v>12</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-1-2013-14</t>
+          <t>2014-03-01</t>
         </is>
       </c>
     </row>
@@ -1940,22 +2007,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E9" t="n">
         <v>25</v>
       </c>
       <c r="F9" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G9" t="n">
-        <v>0.431</v>
+        <v>0.439</v>
       </c>
       <c r="H9" t="n">
         <v>48.1</v>
       </c>
       <c r="I9" t="n">
-        <v>37.6</v>
+        <v>37.7</v>
       </c>
       <c r="J9" t="n">
         <v>85.2</v>
@@ -1970,37 +2037,37 @@
         <v>23</v>
       </c>
       <c r="N9" t="n">
-        <v>0.357</v>
+        <v>0.358</v>
       </c>
       <c r="O9" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="P9" t="n">
-        <v>26.2</v>
+        <v>26</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.717</v>
+        <v>0.719</v>
       </c>
       <c r="R9" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="S9" t="n">
-        <v>32.9</v>
+        <v>33</v>
       </c>
       <c r="T9" t="n">
-        <v>45.5</v>
+        <v>45.6</v>
       </c>
       <c r="U9" t="n">
         <v>21.6</v>
       </c>
       <c r="V9" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="W9" t="n">
         <v>7.1</v>
       </c>
       <c r="X9" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Y9" t="n">
         <v>5.6</v>
@@ -2009,16 +2076,16 @@
         <v>22.8</v>
       </c>
       <c r="AA9" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="AB9" t="n">
-        <v>102.2</v>
+        <v>102.3</v>
       </c>
       <c r="AC9" t="n">
-        <v>-2.5</v>
+        <v>-2.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AE9" t="n">
         <v>19</v>
@@ -2033,13 +2100,13 @@
         <v>27</v>
       </c>
       <c r="AI9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ9" t="n">
         <v>6</v>
       </c>
       <c r="AK9" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AL9" t="n">
         <v>11</v>
@@ -2048,7 +2115,7 @@
         <v>9</v>
       </c>
       <c r="AN9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO9" t="n">
         <v>9</v>
@@ -2069,7 +2136,7 @@
         <v>5</v>
       </c>
       <c r="AU9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV9" t="n">
         <v>25</v>
@@ -2078,7 +2145,7 @@
         <v>24</v>
       </c>
       <c r="AX9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AY9" t="n">
         <v>23</v>
@@ -2093,7 +2160,7 @@
         <v>11</v>
       </c>
       <c r="BC9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-1-2013-14</t>
+          <t>2014-03-01</t>
         </is>
       </c>
     </row>
@@ -2122,25 +2189,25 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E10" t="n">
         <v>23</v>
       </c>
       <c r="F10" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G10" t="n">
-        <v>0.39</v>
+        <v>0.397</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
       </c>
       <c r="I10" t="n">
-        <v>39</v>
+        <v>38.9</v>
       </c>
       <c r="J10" t="n">
-        <v>86.7</v>
+        <v>86.5</v>
       </c>
       <c r="K10" t="n">
         <v>0.45</v>
@@ -2152,28 +2219,28 @@
         <v>18.9</v>
       </c>
       <c r="N10" t="n">
-        <v>0.312</v>
+        <v>0.313</v>
       </c>
       <c r="O10" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="P10" t="n">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.666</v>
+        <v>0.664</v>
       </c>
       <c r="R10" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="S10" t="n">
         <v>30.4</v>
       </c>
       <c r="T10" t="n">
-        <v>44.9</v>
+        <v>44.8</v>
       </c>
       <c r="U10" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="V10" t="n">
         <v>15</v>
@@ -2188,19 +2255,19 @@
         <v>4.8</v>
       </c>
       <c r="Z10" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AA10" t="n">
         <v>20.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>101</v>
+        <v>100.8</v>
       </c>
       <c r="AC10" t="n">
-        <v>-2.8</v>
+        <v>-2.7</v>
       </c>
       <c r="AD10" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE10" t="n">
         <v>21</v>
@@ -2212,10 +2279,10 @@
         <v>21</v>
       </c>
       <c r="AH10" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AI10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ10" t="n">
         <v>4</v>
@@ -2251,7 +2318,7 @@
         <v>9</v>
       </c>
       <c r="AU10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV10" t="n">
         <v>17</v>
@@ -2263,7 +2330,7 @@
         <v>10</v>
       </c>
       <c r="AY10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ10" t="n">
         <v>15</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-1-2013-14</t>
+          <t>2014-03-01</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>4.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE11" t="n">
         <v>8</v>
@@ -2394,7 +2461,7 @@
         <v>8</v>
       </c>
       <c r="AH11" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AI11" t="n">
         <v>7</v>
@@ -2403,7 +2470,7 @@
         <v>7</v>
       </c>
       <c r="AK11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL11" t="n">
         <v>5</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-1-2013-14</t>
+          <t>2014-03-01</t>
         </is>
       </c>
     </row>
@@ -2486,34 +2553,34 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E12" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F12" t="n">
         <v>19</v>
       </c>
       <c r="G12" t="n">
-        <v>0.678</v>
+        <v>0.672</v>
       </c>
       <c r="H12" t="n">
         <v>48.3</v>
       </c>
       <c r="I12" t="n">
-        <v>37.8</v>
+        <v>37.7</v>
       </c>
       <c r="J12" t="n">
-        <v>79.5</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="K12" t="n">
-        <v>0.475</v>
+        <v>0.474</v>
       </c>
       <c r="L12" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="M12" t="n">
-        <v>25.9</v>
+        <v>25.8</v>
       </c>
       <c r="N12" t="n">
         <v>0.354</v>
@@ -2531,13 +2598,13 @@
         <v>11.2</v>
       </c>
       <c r="S12" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="T12" t="n">
         <v>45.3</v>
       </c>
       <c r="U12" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="V12" t="n">
         <v>16.5</v>
@@ -2558,13 +2625,13 @@
         <v>24.6</v>
       </c>
       <c r="AB12" t="n">
-        <v>106.4</v>
+        <v>106.2</v>
       </c>
       <c r="AC12" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE12" t="n">
         <v>7</v>
@@ -2576,7 +2643,7 @@
         <v>6</v>
       </c>
       <c r="AH12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI12" t="n">
         <v>14</v>
@@ -2624,7 +2691,7 @@
         <v>18</v>
       </c>
       <c r="AX12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY12" t="n">
         <v>20</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-1-2013-14</t>
+          <t>2014-03-01</t>
         </is>
       </c>
     </row>
@@ -2668,34 +2735,34 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E13" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="n">
         <v>13</v>
       </c>
       <c r="G13" t="n">
-        <v>0.776</v>
+        <v>0.772</v>
       </c>
       <c r="H13" t="n">
         <v>48.3</v>
       </c>
       <c r="I13" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="J13" t="n">
-        <v>81.2</v>
+        <v>81.3</v>
       </c>
       <c r="K13" t="n">
-        <v>0.455</v>
+        <v>0.454</v>
       </c>
       <c r="L13" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="M13" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="N13" t="n">
         <v>0.353</v>
@@ -2710,19 +2777,19 @@
         <v>0.781</v>
       </c>
       <c r="R13" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="S13" t="n">
         <v>35.3</v>
       </c>
       <c r="T13" t="n">
-        <v>45.6</v>
+        <v>45.7</v>
       </c>
       <c r="U13" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="V13" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W13" t="n">
         <v>7.2</v>
@@ -2746,7 +2813,7 @@
         <v>8</v>
       </c>
       <c r="AD13" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AE13" t="n">
         <v>1</v>
@@ -2767,7 +2834,7 @@
         <v>25</v>
       </c>
       <c r="AK13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL13" t="n">
         <v>21</v>
@@ -2776,13 +2843,13 @@
         <v>23</v>
       </c>
       <c r="AN13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO13" t="n">
         <v>11</v>
       </c>
       <c r="AP13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AQ13" t="n">
         <v>5</v>
@@ -2800,13 +2867,13 @@
         <v>24</v>
       </c>
       <c r="AV13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AX13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY13" t="n">
         <v>11</v>
@@ -2818,7 +2885,7 @@
         <v>6</v>
       </c>
       <c r="BB13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC13" t="n">
         <v>1</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-1-2013-14</t>
+          <t>2014-03-01</t>
         </is>
       </c>
     </row>
@@ -2850,25 +2917,25 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E14" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F14" t="n">
         <v>20</v>
       </c>
       <c r="G14" t="n">
-        <v>0.672</v>
+        <v>0.667</v>
       </c>
       <c r="H14" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="I14" t="n">
         <v>38.6</v>
       </c>
       <c r="J14" t="n">
-        <v>81.8</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K14" t="n">
         <v>0.472</v>
@@ -2895,16 +2962,16 @@
         <v>10.4</v>
       </c>
       <c r="S14" t="n">
-        <v>32.6</v>
+        <v>32.5</v>
       </c>
       <c r="T14" t="n">
-        <v>43</v>
+        <v>42.9</v>
       </c>
       <c r="U14" t="n">
         <v>24.2</v>
       </c>
       <c r="V14" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="W14" t="n">
         <v>8.4</v>
@@ -2913,19 +2980,19 @@
         <v>4.6</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Z14" t="n">
         <v>21.6</v>
       </c>
       <c r="AA14" t="n">
-        <v>24.1</v>
+        <v>24</v>
       </c>
       <c r="AB14" t="n">
         <v>107.2</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="AD14" t="n">
         <v>1</v>
@@ -2958,7 +3025,7 @@
         <v>8</v>
       </c>
       <c r="AN14" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO14" t="n">
         <v>2</v>
@@ -2982,7 +3049,7 @@
         <v>3</v>
       </c>
       <c r="AV14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW14" t="n">
         <v>9</v>
@@ -3003,7 +3070,7 @@
         <v>2</v>
       </c>
       <c r="BC14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-1-2013-14</t>
+          <t>2014-03-01</t>
         </is>
       </c>
     </row>
@@ -3110,16 +3177,16 @@
         <v>-5.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE15" t="n">
         <v>25</v>
       </c>
       <c r="AF15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH15" t="n">
         <v>28</v>
@@ -3134,7 +3201,7 @@
         <v>17</v>
       </c>
       <c r="AL15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AM15" t="n">
         <v>6</v>
@@ -3161,10 +3228,10 @@
         <v>23</v>
       </c>
       <c r="AU15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW15" t="n">
         <v>28</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-1-2013-14</t>
+          <t>2014-03-01</t>
         </is>
       </c>
     </row>
@@ -3214,58 +3281,58 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E16" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F16" t="n">
         <v>25</v>
       </c>
       <c r="G16" t="n">
-        <v>0.569</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="H16" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I16" t="n">
-        <v>37.7</v>
+        <v>37.6</v>
       </c>
       <c r="J16" t="n">
         <v>82.09999999999999</v>
       </c>
       <c r="K16" t="n">
-        <v>0.459</v>
+        <v>0.457</v>
       </c>
       <c r="L16" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="M16" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="N16" t="n">
-        <v>0.351</v>
+        <v>0.348</v>
       </c>
       <c r="O16" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="P16" t="n">
         <v>20.2</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.75</v>
+        <v>0.751</v>
       </c>
       <c r="R16" t="n">
         <v>11.4</v>
       </c>
       <c r="S16" t="n">
-        <v>30.8</v>
+        <v>30.9</v>
       </c>
       <c r="T16" t="n">
-        <v>42.2</v>
+        <v>42.3</v>
       </c>
       <c r="U16" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="V16" t="n">
         <v>13.5</v>
@@ -3277,22 +3344,22 @@
         <v>4.7</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>19.6</v>
+        <v>19.8</v>
       </c>
       <c r="AA16" t="n">
         <v>18.7</v>
       </c>
       <c r="AB16" t="n">
-        <v>95.5</v>
+        <v>95.2</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="AD16" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AE16" t="n">
         <v>11</v>
@@ -3307,13 +3374,13 @@
         <v>13</v>
       </c>
       <c r="AI16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ16" t="n">
         <v>21</v>
       </c>
       <c r="AK16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL16" t="n">
         <v>30</v>
@@ -3322,7 +3389,7 @@
         <v>30</v>
       </c>
       <c r="AN16" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AO16" t="n">
         <v>29</v>
@@ -3331,7 +3398,7 @@
         <v>28</v>
       </c>
       <c r="AQ16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR16" t="n">
         <v>14</v>
@@ -3340,22 +3407,22 @@
         <v>22</v>
       </c>
       <c r="AT16" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AU16" t="n">
         <v>13</v>
       </c>
       <c r="AV16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW16" t="n">
         <v>16</v>
       </c>
       <c r="AX16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ16" t="n">
         <v>7</v>
@@ -3364,7 +3431,7 @@
         <v>30</v>
       </c>
       <c r="BB16" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BC16" t="n">
         <v>15</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-1-2013-14</t>
+          <t>2014-03-01</t>
         </is>
       </c>
     </row>
@@ -3396,34 +3463,34 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E17" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F17" t="n">
         <v>14</v>
       </c>
       <c r="G17" t="n">
-        <v>0.75</v>
+        <v>0.745</v>
       </c>
       <c r="H17" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I17" t="n">
-        <v>39.2</v>
+        <v>39.1</v>
       </c>
       <c r="J17" t="n">
-        <v>76.8</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="K17" t="n">
-        <v>0.511</v>
+        <v>0.509</v>
       </c>
       <c r="L17" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="M17" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="N17" t="n">
         <v>0.369</v>
@@ -3435,10 +3502,10 @@
         <v>23.6</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.758</v>
+        <v>0.756</v>
       </c>
       <c r="R17" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="S17" t="n">
         <v>29.4</v>
@@ -3447,16 +3514,16 @@
         <v>36.8</v>
       </c>
       <c r="U17" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="V17" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="W17" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="X17" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Y17" t="n">
         <v>3</v>
@@ -3468,22 +3535,22 @@
         <v>20.8</v>
       </c>
       <c r="AB17" t="n">
-        <v>104.4</v>
+        <v>104.2</v>
       </c>
       <c r="AC17" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AD17" t="n">
         <v>30</v>
       </c>
       <c r="AE17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF17" t="n">
         <v>2</v>
       </c>
       <c r="AG17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH17" t="n">
         <v>9</v>
@@ -3510,7 +3577,7 @@
         <v>14</v>
       </c>
       <c r="AP17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ17" t="n">
         <v>16</v>
@@ -3525,7 +3592,7 @@
         <v>30</v>
       </c>
       <c r="AU17" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AV17" t="n">
         <v>16</v>
@@ -3546,10 +3613,10 @@
         <v>12</v>
       </c>
       <c r="BB17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-1-2013-14</t>
+          <t>2014-03-01</t>
         </is>
       </c>
     </row>
@@ -3578,25 +3645,25 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E18" t="n">
         <v>11</v>
       </c>
       <c r="F18" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G18" t="n">
-        <v>0.19</v>
+        <v>0.193</v>
       </c>
       <c r="H18" t="n">
         <v>48.6</v>
       </c>
       <c r="I18" t="n">
-        <v>35.2</v>
+        <v>35.3</v>
       </c>
       <c r="J18" t="n">
-        <v>82.7</v>
+        <v>82.8</v>
       </c>
       <c r="K18" t="n">
         <v>0.426</v>
@@ -3605,19 +3672,19 @@
         <v>7.4</v>
       </c>
       <c r="M18" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="N18" t="n">
         <v>0.358</v>
       </c>
       <c r="O18" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="P18" t="n">
-        <v>20.7</v>
+        <v>20.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.752</v>
+        <v>0.751</v>
       </c>
       <c r="R18" t="n">
         <v>11.7</v>
@@ -3629,7 +3696,7 @@
         <v>41.3</v>
       </c>
       <c r="U18" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="V18" t="n">
         <v>15.5</v>
@@ -3641,22 +3708,22 @@
         <v>5.3</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z18" t="n">
         <v>20.9</v>
       </c>
       <c r="AA18" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AB18" t="n">
-        <v>93.40000000000001</v>
+        <v>93.3</v>
       </c>
       <c r="AC18" t="n">
         <v>-8.699999999999999</v>
       </c>
       <c r="AD18" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3686,7 +3753,7 @@
         <v>17</v>
       </c>
       <c r="AN18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO18" t="n">
         <v>28</v>
@@ -3695,7 +3762,7 @@
         <v>27</v>
       </c>
       <c r="AQ18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AR18" t="n">
         <v>12</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-1-2013-14</t>
+          <t>2014-03-01</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E19" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F19" t="n">
         <v>29</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5</v>
+        <v>0.491</v>
       </c>
       <c r="H19" t="n">
         <v>48.2</v>
@@ -3778,25 +3845,25 @@
         <v>38.5</v>
       </c>
       <c r="J19" t="n">
-        <v>87.8</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="K19" t="n">
-        <v>0.439</v>
+        <v>0.438</v>
       </c>
       <c r="L19" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="M19" t="n">
         <v>22</v>
       </c>
       <c r="N19" t="n">
-        <v>0.342</v>
+        <v>0.344</v>
       </c>
       <c r="O19" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="P19" t="n">
-        <v>27.3</v>
+        <v>27.2</v>
       </c>
       <c r="Q19" t="n">
         <v>0.775</v>
@@ -3805,40 +3872,40 @@
         <v>12.8</v>
       </c>
       <c r="S19" t="n">
-        <v>32.8</v>
+        <v>32.9</v>
       </c>
       <c r="T19" t="n">
         <v>45.6</v>
       </c>
       <c r="U19" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="V19" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="W19" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X19" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="Y19" t="n">
         <v>5.8</v>
       </c>
       <c r="Z19" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="AA19" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="AB19" t="n">
         <v>105.7</v>
       </c>
       <c r="AC19" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="AD19" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AE19" t="n">
         <v>15</v>
@@ -3853,7 +3920,7 @@
         <v>24</v>
       </c>
       <c r="AI19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ19" t="n">
         <v>2</v>
@@ -3868,7 +3935,7 @@
         <v>13</v>
       </c>
       <c r="AN19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO19" t="n">
         <v>3</v>
@@ -3880,10 +3947,10 @@
         <v>8</v>
       </c>
       <c r="AR19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT19" t="n">
         <v>4</v>
@@ -3904,7 +3971,7 @@
         <v>26</v>
       </c>
       <c r="AZ19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BA19" t="n">
         <v>3</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-1-2013-14</t>
+          <t>2014-03-01</t>
         </is>
       </c>
     </row>
@@ -3942,85 +4009,85 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E20" t="n">
         <v>23</v>
       </c>
       <c r="F20" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G20" t="n">
-        <v>0.39</v>
+        <v>0.397</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
       </c>
       <c r="I20" t="n">
-        <v>37.8</v>
+        <v>38</v>
       </c>
       <c r="J20" t="n">
-        <v>83.2</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K20" t="n">
-        <v>0.455</v>
+        <v>0.457</v>
       </c>
       <c r="L20" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="M20" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="N20" t="n">
-        <v>0.38</v>
+        <v>0.385</v>
       </c>
       <c r="O20" t="n">
         <v>17.2</v>
       </c>
       <c r="P20" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.764</v>
+        <v>0.762</v>
       </c>
       <c r="R20" t="n">
         <v>12</v>
       </c>
       <c r="S20" t="n">
-        <v>30.3</v>
+        <v>30.2</v>
       </c>
       <c r="T20" t="n">
-        <v>42.3</v>
+        <v>42.2</v>
       </c>
       <c r="U20" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="V20" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="W20" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="X20" t="n">
         <v>6.3</v>
       </c>
       <c r="Y20" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="Z20" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="AA20" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AB20" t="n">
-        <v>98.8</v>
+        <v>99.2</v>
       </c>
       <c r="AC20" t="n">
-        <v>-2.9</v>
+        <v>-2.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE20" t="n">
         <v>21</v>
@@ -4032,7 +4099,7 @@
         <v>21</v>
       </c>
       <c r="AH20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI20" t="n">
         <v>13</v>
@@ -4041,16 +4108,16 @@
         <v>14</v>
       </c>
       <c r="AK20" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AL20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM20" t="n">
         <v>29</v>
       </c>
       <c r="AN20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AO20" t="n">
         <v>16</v>
@@ -4059,7 +4126,7 @@
         <v>18</v>
       </c>
       <c r="AQ20" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AR20" t="n">
         <v>7</v>
@@ -4068,13 +4135,13 @@
         <v>26</v>
       </c>
       <c r="AT20" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AU20" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW20" t="n">
         <v>12</v>
@@ -4089,13 +4156,13 @@
         <v>27</v>
       </c>
       <c r="BA20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC20" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-1-2013-14</t>
+          <t>2014-03-01</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-2.7</v>
       </c>
       <c r="AD21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE21" t="n">
         <v>23</v>
@@ -4214,7 +4281,7 @@
         <v>24</v>
       </c>
       <c r="AH21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI21" t="n">
         <v>21</v>
@@ -4241,7 +4308,7 @@
         <v>30</v>
       </c>
       <c r="AQ21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR21" t="n">
         <v>19</v>
@@ -4253,7 +4320,7 @@
         <v>26</v>
       </c>
       <c r="AU21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AV21" t="n">
         <v>2</v>
@@ -4277,7 +4344,7 @@
         <v>21</v>
       </c>
       <c r="BC21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-1-2013-14</t>
+          <t>2014-03-01</t>
         </is>
       </c>
     </row>
@@ -4384,22 +4451,22 @@
         <v>6.3</v>
       </c>
       <c r="AD22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF22" t="n">
         <v>3</v>
       </c>
       <c r="AG22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH22" t="n">
         <v>26</v>
       </c>
       <c r="AI22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ22" t="n">
         <v>19</v>
@@ -4435,7 +4502,7 @@
         <v>8</v>
       </c>
       <c r="AU22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV22" t="n">
         <v>28</v>
@@ -4459,7 +4526,7 @@
         <v>5</v>
       </c>
       <c r="BC22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-1-2013-14</t>
+          <t>2014-03-01</t>
         </is>
       </c>
     </row>
@@ -4488,19 +4555,19 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E23" t="n">
         <v>18</v>
       </c>
       <c r="F23" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G23" t="n">
-        <v>0.295</v>
+        <v>0.3</v>
       </c>
       <c r="H23" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="I23" t="n">
         <v>36.7</v>
@@ -4512,43 +4579,43 @@
         <v>0.442</v>
       </c>
       <c r="L23" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="M23" t="n">
         <v>19.9</v>
       </c>
       <c r="N23" t="n">
-        <v>0.352</v>
+        <v>0.354</v>
       </c>
       <c r="O23" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="P23" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="Q23" t="n">
         <v>0.764</v>
       </c>
       <c r="R23" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="S23" t="n">
-        <v>32.8</v>
+        <v>32.9</v>
       </c>
       <c r="T23" t="n">
         <v>42.3</v>
       </c>
       <c r="U23" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="V23" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W23" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="X23" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Y23" t="n">
         <v>5.8</v>
@@ -4563,7 +4630,7 @@
         <v>96.7</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.2</v>
+        <v>-5.1</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -4587,7 +4654,7 @@
         <v>16</v>
       </c>
       <c r="AK23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL23" t="n">
         <v>19</v>
@@ -4596,28 +4663,28 @@
         <v>20</v>
       </c>
       <c r="AN23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP23" t="n">
         <v>24</v>
       </c>
       <c r="AQ23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR23" t="n">
         <v>24</v>
       </c>
       <c r="AS23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AU23" t="n">
         <v>20</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>21</v>
       </c>
       <c r="AV23" t="n">
         <v>12</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-1-2013-14</t>
+          <t>2014-03-01</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
       </c>
       <c r="F24" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G24" t="n">
-        <v>0.254</v>
+        <v>0.259</v>
       </c>
       <c r="H24" t="n">
         <v>48.6</v>
@@ -4694,19 +4761,19 @@
         <v>0.434</v>
       </c>
       <c r="L24" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="M24" t="n">
         <v>21.9</v>
       </c>
       <c r="N24" t="n">
-        <v>0.308</v>
+        <v>0.309</v>
       </c>
       <c r="O24" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="P24" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="Q24" t="n">
         <v>0.715</v>
@@ -4718,7 +4785,7 @@
         <v>32.1</v>
       </c>
       <c r="T24" t="n">
-        <v>43.9</v>
+        <v>44</v>
       </c>
       <c r="U24" t="n">
         <v>22.1</v>
@@ -4730,7 +4797,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="X24" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Y24" t="n">
         <v>7.4</v>
@@ -4742,13 +4809,13 @@
         <v>20.7</v>
       </c>
       <c r="AB24" t="n">
-        <v>100.3</v>
+        <v>100.2</v>
       </c>
       <c r="AC24" t="n">
-        <v>-10.8</v>
+        <v>-10.7</v>
       </c>
       <c r="AD24" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE24" t="n">
         <v>29</v>
@@ -4760,7 +4827,7 @@
         <v>29</v>
       </c>
       <c r="AH24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI24" t="n">
         <v>12</v>
@@ -4772,7 +4839,7 @@
         <v>27</v>
       </c>
       <c r="AL24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM24" t="n">
         <v>14</v>
@@ -4784,7 +4851,7 @@
         <v>19</v>
       </c>
       <c r="AP24" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AQ24" t="n">
         <v>28</v>
@@ -4808,7 +4875,7 @@
         <v>1</v>
       </c>
       <c r="AX24" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AY24" t="n">
         <v>30</v>
@@ -4820,7 +4887,7 @@
         <v>13</v>
       </c>
       <c r="BB24" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-1-2013-14</t>
+          <t>2014-03-01</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>2.9</v>
       </c>
       <c r="AD25" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AE25" t="n">
         <v>10</v>
@@ -4942,7 +5009,7 @@
         <v>10</v>
       </c>
       <c r="AH25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI25" t="n">
         <v>9</v>
@@ -4951,7 +5018,7 @@
         <v>9</v>
       </c>
       <c r="AK25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL25" t="n">
         <v>4</v>
@@ -4975,7 +5042,7 @@
         <v>13</v>
       </c>
       <c r="AS25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT25" t="n">
         <v>13</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-1-2013-14</t>
+          <t>2014-03-01</t>
         </is>
       </c>
     </row>
@@ -5034,37 +5101,37 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E26" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F26" t="n">
         <v>18</v>
       </c>
       <c r="G26" t="n">
-        <v>0.695</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H26" t="n">
         <v>48.3</v>
       </c>
       <c r="I26" t="n">
-        <v>39.6</v>
+        <v>39.7</v>
       </c>
       <c r="J26" t="n">
-        <v>87.7</v>
+        <v>87.8</v>
       </c>
       <c r="K26" t="n">
         <v>0.452</v>
       </c>
       <c r="L26" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="M26" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="N26" t="n">
-        <v>0.378</v>
+        <v>0.382</v>
       </c>
       <c r="O26" t="n">
         <v>19.2</v>
@@ -5073,19 +5140,19 @@
         <v>23.3</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.826</v>
+        <v>0.824</v>
       </c>
       <c r="R26" t="n">
         <v>12.6</v>
       </c>
       <c r="S26" t="n">
-        <v>33.7</v>
+        <v>33.5</v>
       </c>
       <c r="T26" t="n">
-        <v>46.2</v>
+        <v>46.1</v>
       </c>
       <c r="U26" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="V26" t="n">
         <v>13.7</v>
@@ -5100,19 +5167,19 @@
         <v>3.7</v>
       </c>
       <c r="Z26" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="AA26" t="n">
         <v>20.6</v>
       </c>
       <c r="AB26" t="n">
-        <v>107.8</v>
+        <v>107.9</v>
       </c>
       <c r="AC26" t="n">
         <v>4.9</v>
       </c>
       <c r="AD26" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE26" t="n">
         <v>5</v>
@@ -5124,7 +5191,7 @@
         <v>5</v>
       </c>
       <c r="AH26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AI26" t="n">
         <v>2</v>
@@ -5136,13 +5203,13 @@
         <v>14</v>
       </c>
       <c r="AL26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM26" t="n">
         <v>4</v>
       </c>
       <c r="AN26" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AO26" t="n">
         <v>6</v>
@@ -5172,7 +5239,7 @@
         <v>30</v>
       </c>
       <c r="AX26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY26" t="n">
         <v>5</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-1-2013-14</t>
+          <t>2014-03-01</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E27" t="n">
         <v>20</v>
       </c>
       <c r="F27" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G27" t="n">
-        <v>0.339</v>
+        <v>0.345</v>
       </c>
       <c r="H27" t="n">
         <v>48.4</v>
@@ -5243,19 +5310,19 @@
         <v>6.6</v>
       </c>
       <c r="M27" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="N27" t="n">
-        <v>0.344</v>
+        <v>0.345</v>
       </c>
       <c r="O27" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="P27" t="n">
-        <v>26.5</v>
+        <v>26.6</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.777</v>
+        <v>0.778</v>
       </c>
       <c r="R27" t="n">
         <v>11.9</v>
@@ -5264,16 +5331,16 @@
         <v>31.7</v>
       </c>
       <c r="T27" t="n">
-        <v>43.7</v>
+        <v>43.6</v>
       </c>
       <c r="U27" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="V27" t="n">
         <v>15.1</v>
       </c>
       <c r="W27" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X27" t="n">
         <v>4</v>
@@ -5282,25 +5349,25 @@
         <v>5.7</v>
       </c>
       <c r="Z27" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="AA27" t="n">
         <v>22.8</v>
       </c>
       <c r="AB27" t="n">
-        <v>101.6</v>
+        <v>101.7</v>
       </c>
       <c r="AC27" t="n">
-        <v>-2.5</v>
+        <v>-2.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE27" t="n">
         <v>25</v>
       </c>
       <c r="AF27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG27" t="n">
         <v>25</v>
@@ -5339,7 +5406,7 @@
         <v>8</v>
       </c>
       <c r="AS27" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT27" t="n">
         <v>12</v>
@@ -5360,7 +5427,7 @@
         <v>24</v>
       </c>
       <c r="AZ27" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BA27" t="n">
         <v>4</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-1-2013-14</t>
+          <t>2014-03-01</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>6</v>
       </c>
       <c r="AD28" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AE28" t="n">
         <v>3</v>
@@ -5488,7 +5555,7 @@
         <v>4</v>
       </c>
       <c r="AH28" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI28" t="n">
         <v>1</v>
@@ -5500,16 +5567,16 @@
         <v>2</v>
       </c>
       <c r="AL28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM28" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AN28" t="n">
         <v>1</v>
       </c>
       <c r="AO28" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP28" t="n">
         <v>29</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-1-2013-14</t>
+          <t>2014-03-01</t>
         </is>
       </c>
     </row>
@@ -5658,10 +5725,10 @@
         <v>3</v>
       </c>
       <c r="AD29" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AE29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF29" t="n">
         <v>12</v>
@@ -5673,7 +5740,7 @@
         <v>4</v>
       </c>
       <c r="AI29" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ29" t="n">
         <v>18</v>
@@ -5694,7 +5761,7 @@
         <v>7</v>
       </c>
       <c r="AP29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ29" t="n">
         <v>9</v>
@@ -5709,7 +5776,7 @@
         <v>14</v>
       </c>
       <c r="AU29" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AV29" t="n">
         <v>9</v>
@@ -5724,7 +5791,7 @@
         <v>13</v>
       </c>
       <c r="AZ29" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BA29" t="n">
         <v>5</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-1-2013-14</t>
+          <t>2014-03-01</t>
         </is>
       </c>
     </row>
@@ -5840,19 +5907,19 @@
         <v>-5.6</v>
       </c>
       <c r="AD30" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AE30" t="n">
         <v>23</v>
       </c>
       <c r="AF30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG30" t="n">
         <v>23</v>
       </c>
       <c r="AH30" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI30" t="n">
         <v>26</v>
@@ -5861,7 +5928,7 @@
         <v>26</v>
       </c>
       <c r="AK30" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL30" t="n">
         <v>22</v>
@@ -5873,7 +5940,7 @@
         <v>17</v>
       </c>
       <c r="AO30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP30" t="n">
         <v>21</v>
@@ -5900,7 +5967,7 @@
         <v>26</v>
       </c>
       <c r="AX30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY30" t="n">
         <v>16</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-1-2013-14</t>
+          <t>2014-03-01</t>
         </is>
       </c>
     </row>
@@ -5944,43 +6011,43 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E31" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F31" t="n">
         <v>28</v>
       </c>
       <c r="G31" t="n">
-        <v>0.525</v>
+        <v>0.517</v>
       </c>
       <c r="H31" t="n">
         <v>49</v>
       </c>
       <c r="I31" t="n">
-        <v>38.5</v>
+        <v>38.4</v>
       </c>
       <c r="J31" t="n">
         <v>84.90000000000001</v>
       </c>
       <c r="K31" t="n">
-        <v>0.454</v>
+        <v>0.453</v>
       </c>
       <c r="L31" t="n">
         <v>7.8</v>
       </c>
       <c r="M31" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="N31" t="n">
-        <v>0.382</v>
+        <v>0.38</v>
       </c>
       <c r="O31" t="n">
         <v>15.6</v>
       </c>
       <c r="P31" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="Q31" t="n">
         <v>0.728</v>
@@ -5995,34 +6062,34 @@
         <v>42.6</v>
       </c>
       <c r="U31" t="n">
-        <v>23.4</v>
+        <v>23.2</v>
       </c>
       <c r="V31" t="n">
         <v>14.7</v>
       </c>
       <c r="W31" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="X31" t="n">
         <v>4.8</v>
       </c>
       <c r="Y31" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AA31" t="n">
         <v>19.7</v>
       </c>
       <c r="AB31" t="n">
-        <v>100.6</v>
+        <v>100.2</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AD31" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE31" t="n">
         <v>14</v>
@@ -6037,7 +6104,7 @@
         <v>1</v>
       </c>
       <c r="AI31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ31" t="n">
         <v>8</v>
@@ -6052,16 +6119,16 @@
         <v>18</v>
       </c>
       <c r="AN31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AO31" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AP31" t="n">
         <v>23</v>
       </c>
       <c r="AQ31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR31" t="n">
         <v>18</v>
@@ -6073,7 +6140,7 @@
         <v>17</v>
       </c>
       <c r="AU31" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AV31" t="n">
         <v>14</v>
@@ -6091,10 +6158,10 @@
         <v>16</v>
       </c>
       <c r="BA31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BB31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC31" t="n">
         <v>14</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-1-2013-14</t>
+          <t>2014-03-01</t>
         </is>
       </c>
     </row>
